--- a/Code/Results/Cases/Case_0_126/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_126/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>1.010376716404182</v>
+        <v>1.06939234730424</v>
       </c>
       <c r="D2">
-        <v>1.01864877393899</v>
+        <v>1.072038659540243</v>
       </c>
       <c r="E2">
-        <v>1.019797431959327</v>
+        <v>1.073297678660724</v>
       </c>
       <c r="F2">
-        <v>1.023106726777966</v>
+        <v>1.082757872379919</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.051565627414977</v>
+        <v>1.046449540882804</v>
       </c>
       <c r="J2">
-        <v>1.032251430203391</v>
+        <v>1.074327305605132</v>
       </c>
       <c r="K2">
-        <v>1.029854274376537</v>
+        <v>1.074734235453945</v>
       </c>
       <c r="L2">
-        <v>1.03098767859925</v>
+        <v>1.075989911868544</v>
       </c>
       <c r="M2">
-        <v>1.034253267163695</v>
+        <v>1.08542525720971</v>
       </c>
       <c r="N2">
-        <v>1.033717345635174</v>
+        <v>1.075852973606156</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.021091856370079</v>
+        <v>1.071334476799323</v>
       </c>
       <c r="D3">
-        <v>1.028684033450316</v>
+        <v>1.073899115812292</v>
       </c>
       <c r="E3">
-        <v>1.029494624989949</v>
+        <v>1.075088726705865</v>
       </c>
       <c r="F3">
-        <v>1.033668672783417</v>
+        <v>1.084741177176355</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.055180796886619</v>
+        <v>1.046949866511578</v>
       </c>
       <c r="J3">
-        <v>1.041023596198961</v>
+        <v>1.075921909107392</v>
       </c>
       <c r="K3">
-        <v>1.038962594082698</v>
+        <v>1.076408787342939</v>
       </c>
       <c r="L3">
-        <v>1.039763528491424</v>
+        <v>1.077595473086181</v>
       </c>
       <c r="M3">
-        <v>1.043888144949363</v>
+        <v>1.087224443993265</v>
       </c>
       <c r="N3">
-        <v>1.042501969112638</v>
+        <v>1.077449841628292</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.02773466495685</v>
+        <v>1.072586654219481</v>
       </c>
       <c r="D4">
-        <v>1.034910331981161</v>
+        <v>1.075098774253811</v>
       </c>
       <c r="E4">
-        <v>1.035509059304169</v>
+        <v>1.076243301880598</v>
       </c>
       <c r="F4">
-        <v>1.040223840613056</v>
+        <v>1.086020358652081</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.057402170203375</v>
+        <v>1.047270040749313</v>
       </c>
       <c r="J4">
-        <v>1.046454572428556</v>
+        <v>1.076948969065277</v>
       </c>
       <c r="K4">
-        <v>1.044604914927279</v>
+        <v>1.077487723750012</v>
       </c>
       <c r="L4">
-        <v>1.045197008352839</v>
+        <v>1.078629581626147</v>
       </c>
       <c r="M4">
-        <v>1.04985987762386</v>
+        <v>1.088384077969757</v>
       </c>
       <c r="N4">
-        <v>1.047940657951421</v>
+        <v>1.078478360129123</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.030463264661476</v>
+        <v>1.073112013468997</v>
       </c>
       <c r="D5">
-        <v>1.037468931499554</v>
+        <v>1.075602131529832</v>
       </c>
       <c r="E5">
-        <v>1.03798009071829</v>
+        <v>1.076727664906222</v>
       </c>
       <c r="F5">
-        <v>1.042918112212947</v>
+        <v>1.086557156710355</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.058309779256765</v>
+        <v>1.047403794706232</v>
       </c>
       <c r="J5">
-        <v>1.048683571246722</v>
+        <v>1.077379626532699</v>
       </c>
       <c r="K5">
-        <v>1.046921425194256</v>
+        <v>1.077940225301535</v>
       </c>
       <c r="L5">
-        <v>1.047427094369276</v>
+        <v>1.079063192836862</v>
       </c>
       <c r="M5">
-        <v>1.052312418794227</v>
+        <v>1.088870518439803</v>
       </c>
       <c r="N5">
-        <v>1.050172822203579</v>
+        <v>1.078909629179546</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.030917801315959</v>
+        <v>1.073200162347302</v>
       </c>
       <c r="D6">
-        <v>1.037895210044077</v>
+        <v>1.075686590644468</v>
       </c>
       <c r="E6">
-        <v>1.03839175015836</v>
+        <v>1.076808932378736</v>
       </c>
       <c r="F6">
-        <v>1.043367026402642</v>
+        <v>1.086647231273349</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.058460683699417</v>
+        <v>1.047426203110089</v>
       </c>
       <c r="J6">
-        <v>1.049054773439971</v>
+        <v>1.077451870797037</v>
       </c>
       <c r="K6">
-        <v>1.04730724621659</v>
+        <v>1.078016139367563</v>
       </c>
       <c r="L6">
-        <v>1.047798481315288</v>
+        <v>1.079135932507028</v>
       </c>
       <c r="M6">
-        <v>1.052720942878848</v>
+        <v>1.088952131846363</v>
       </c>
       <c r="N6">
-        <v>1.05054455154652</v>
+        <v>1.078981976039026</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.027771369469064</v>
+        <v>1.072593678213438</v>
       </c>
       <c r="D7">
-        <v>1.034944745517739</v>
+        <v>1.075105503956114</v>
       </c>
       <c r="E7">
-        <v>1.035542297041502</v>
+        <v>1.076249777943125</v>
       </c>
       <c r="F7">
-        <v>1.040260076828659</v>
+        <v>1.086027535152963</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.057414398474921</v>
+        <v>1.04727183129552</v>
       </c>
       <c r="J7">
-        <v>1.046484563775762</v>
+        <v>1.076954727899651</v>
       </c>
       <c r="K7">
-        <v>1.044636080692614</v>
+        <v>1.077493774326843</v>
       </c>
       <c r="L7">
-        <v>1.045227014083136</v>
+        <v>1.078635379965138</v>
       </c>
       <c r="M7">
-        <v>1.049892870371976</v>
+        <v>1.08839058198428</v>
       </c>
       <c r="N7">
-        <v>1.04797069188978</v>
+        <v>1.078484127141703</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.0140616866737</v>
+        <v>1.070049647230855</v>
       </c>
       <c r="D8">
-        <v>1.022098799044028</v>
+        <v>1.072668288413038</v>
       </c>
       <c r="E8">
-        <v>1.023131683314473</v>
+        <v>1.07390388609409</v>
       </c>
       <c r="F8">
-        <v>1.026737394076706</v>
+        <v>1.083429012911838</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.052813065178935</v>
+        <v>1.04661937189569</v>
       </c>
       <c r="J8">
-        <v>1.035269706490836</v>
+        <v>1.074867205924667</v>
       </c>
       <c r="K8">
-        <v>1.03298752238425</v>
+        <v>1.075301125168268</v>
       </c>
       <c r="L8">
-        <v>1.034007178624269</v>
+        <v>1.076533524367942</v>
       </c>
       <c r="M8">
-        <v>1.037566971942846</v>
+        <v>1.086034258376845</v>
       </c>
       <c r="N8">
-        <v>1.036739908221148</v>
+        <v>1.076393640646071</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.987383362098094</v>
+        <v>1.065531128678239</v>
       </c>
       <c r="D9">
-        <v>0.9971490912554158</v>
+        <v>1.068340592487433</v>
       </c>
       <c r="E9">
-        <v>0.9990098460924314</v>
+        <v>1.069735809464019</v>
       </c>
       <c r="F9">
-        <v>1.000489310502258</v>
+        <v>1.078817242197701</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.043697736675262</v>
+        <v>1.045441980757522</v>
       </c>
       <c r="J9">
-        <v>1.013389650331995</v>
+        <v>1.071151408966262</v>
       </c>
       <c r="K9">
-        <v>1.010288592432262</v>
+        <v>1.07140115884313</v>
       </c>
       <c r="L9">
-        <v>1.012119008306129</v>
+        <v>1.072792126366318</v>
       </c>
       <c r="M9">
-        <v>1.013574453970225</v>
+        <v>1.081846192182141</v>
       </c>
       <c r="N9">
-        <v>1.014828779872884</v>
+        <v>1.072672566829778</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.967396604177797</v>
+        <v>1.062493336651469</v>
       </c>
       <c r="D10">
-        <v>0.9785012952780519</v>
+        <v>1.065431876019676</v>
       </c>
       <c r="E10">
-        <v>0.9809687458667226</v>
+        <v>1.066932641567722</v>
       </c>
       <c r="F10">
-        <v>0.9808797279945818</v>
+        <v>1.075719150100937</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.036764555916702</v>
+        <v>1.044637975996189</v>
       </c>
       <c r="J10">
-        <v>0.9969662778744413</v>
+        <v>1.068647856686165</v>
       </c>
       <c r="K10">
-        <v>0.993269876329109</v>
+        <v>1.068775511838252</v>
       </c>
       <c r="L10">
-        <v>0.9956903327187283</v>
+        <v>1.070271243796346</v>
       </c>
       <c r="M10">
-        <v>0.9956030048742913</v>
+        <v>1.079028591400124</v>
       </c>
       <c r="N10">
-        <v>0.9983820843426534</v>
+        <v>1.070165459218282</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9580685346215803</v>
+        <v>1.06117156612564</v>
       </c>
       <c r="D11">
-        <v>0.9698117911352498</v>
+        <v>1.064166463013171</v>
       </c>
       <c r="E11">
-        <v>0.9725591617033901</v>
+        <v>1.065712730321789</v>
       </c>
       <c r="F11">
-        <v>0.9717434356625395</v>
+        <v>1.074371713685094</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.03350598788832</v>
+        <v>1.044285202006269</v>
       </c>
       <c r="J11">
-        <v>0.9892960891064267</v>
+        <v>1.067557255895234</v>
       </c>
       <c r="K11">
-        <v>0.9853263875513114</v>
+        <v>1.067632196163228</v>
       </c>
       <c r="L11">
-        <v>0.9880178141045411</v>
+        <v>1.069173069446698</v>
       </c>
       <c r="M11">
-        <v>0.9872186549749137</v>
+        <v>1.07780216230681</v>
       </c>
       <c r="N11">
-        <v>0.9907010030268053</v>
+        <v>1.069073309649134</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9544855632581988</v>
+        <v>1.06067961292399</v>
       </c>
       <c r="D12">
-        <v>0.966476492013691</v>
+        <v>1.063695515824381</v>
       </c>
       <c r="E12">
-        <v>0.9693309000123995</v>
+        <v>1.06525865451957</v>
       </c>
       <c r="F12">
-        <v>0.9682367827486673</v>
+        <v>1.073870293953782</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.032251153387254</v>
+        <v>1.044153460467514</v>
       </c>
       <c r="J12">
-        <v>0.9863493903660989</v>
+        <v>1.067151150050018</v>
       </c>
       <c r="K12">
-        <v>0.9822754207302262</v>
+        <v>1.067206531868189</v>
       </c>
       <c r="L12">
-        <v>0.9850702420987529</v>
+        <v>1.068764139423415</v>
       </c>
       <c r="M12">
-        <v>0.9839989099834141</v>
+        <v>1.077345624669521</v>
       </c>
       <c r="N12">
-        <v>0.9877501196362751</v>
+        <v>1.068666627087037</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9552597857467371</v>
+        <v>1.060785183774548</v>
       </c>
       <c r="D13">
-        <v>0.9671970823694201</v>
+        <v>1.063796577506089</v>
       </c>
       <c r="E13">
-        <v>0.9700283828649249</v>
+        <v>1.065356098584321</v>
       </c>
       <c r="F13">
-        <v>0.9689943891424427</v>
+        <v>1.073977892376076</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.03252244282272</v>
+        <v>1.044181751553841</v>
       </c>
       <c r="J13">
-        <v>0.9869861437918641</v>
+        <v>1.067238307153426</v>
       </c>
       <c r="K13">
-        <v>0.9829346724954404</v>
+        <v>1.067297883333151</v>
       </c>
       <c r="L13">
-        <v>0.9857071832137968</v>
+        <v>1.068851902830826</v>
       </c>
       <c r="M13">
-        <v>0.9846946069760366</v>
+        <v>1.077443598661481</v>
       </c>
       <c r="N13">
-        <v>0.9883877773249418</v>
+        <v>1.068753907963529</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9577748875035877</v>
+        <v>1.061130921462196</v>
       </c>
       <c r="D14">
-        <v>0.9695383917656742</v>
+        <v>1.064127553225331</v>
       </c>
       <c r="E14">
-        <v>0.9722945444028521</v>
+        <v>1.06567521573825</v>
       </c>
       <c r="F14">
-        <v>0.9714559878555198</v>
+        <v>1.074330285149197</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.033403209350111</v>
+        <v>1.044274326657213</v>
       </c>
       <c r="J14">
-        <v>0.9890545975979479</v>
+        <v>1.067523707769457</v>
       </c>
       <c r="K14">
-        <v>0.9850763361744089</v>
+        <v>1.067597030881411</v>
       </c>
       <c r="L14">
-        <v>0.9877762505784952</v>
+        <v>1.069139288101726</v>
       </c>
       <c r="M14">
-        <v>0.9869547599342275</v>
+        <v>1.077764445062813</v>
       </c>
       <c r="N14">
-        <v>0.9904591685726849</v>
+        <v>1.069039713881171</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9593082963314968</v>
+        <v>1.061343809956546</v>
       </c>
       <c r="D15">
-        <v>0.9709661669413456</v>
+        <v>1.064331356032319</v>
       </c>
       <c r="E15">
-        <v>0.9736764406900879</v>
+        <v>1.06587170812578</v>
       </c>
       <c r="F15">
-        <v>0.9729571333618739</v>
+        <v>1.074547282934236</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.033939785422913</v>
+        <v>1.044331271458676</v>
       </c>
       <c r="J15">
-        <v>0.9903156329740095</v>
+        <v>1.067699418173917</v>
       </c>
       <c r="K15">
-        <v>0.9863820994604022</v>
+        <v>1.067781214143657</v>
       </c>
       <c r="L15">
-        <v>0.9890376629082952</v>
+        <v>1.069316219839472</v>
       </c>
       <c r="M15">
-        <v>0.9883328365911014</v>
+        <v>1.077961997472902</v>
       </c>
       <c r="N15">
-        <v>0.9917219947636233</v>
+        <v>1.069215673814558</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9680001336449472</v>
+        <v>1.06258092116269</v>
       </c>
       <c r="D16">
-        <v>0.979063815011543</v>
+        <v>1.065515730290302</v>
       </c>
       <c r="E16">
-        <v>0.9815130889059672</v>
+        <v>1.06701347181489</v>
       </c>
       <c r="F16">
-        <v>0.9814711935257845</v>
+        <v>1.075808447349418</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.036974939070144</v>
+        <v>1.044661290009926</v>
       </c>
       <c r="J16">
-        <v>0.9974624552957245</v>
+        <v>1.06872009625216</v>
       </c>
       <c r="K16">
-        <v>0.993783831237092</v>
+        <v>1.068851253074073</v>
       </c>
       <c r="L16">
-        <v>0.9961866637608462</v>
+        <v>1.070343984481345</v>
       </c>
       <c r="M16">
-        <v>0.9961455602242334</v>
+        <v>1.079109848519382</v>
       </c>
       <c r="N16">
-        <v>0.9988789663927873</v>
+        <v>1.070237801372747</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9732612306603972</v>
+        <v>1.063355197954983</v>
       </c>
       <c r="D17">
-        <v>0.9839689685566351</v>
+        <v>1.066257053124135</v>
       </c>
       <c r="E17">
-        <v>0.9862594336854463</v>
+        <v>1.06772801241681</v>
       </c>
       <c r="F17">
-        <v>0.9866289002851328</v>
+        <v>1.076597931178384</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.038806391126713</v>
+        <v>1.044867054609844</v>
       </c>
       <c r="J17">
-        <v>1.001787188581589</v>
+        <v>1.069358570760339</v>
       </c>
       <c r="K17">
-        <v>0.9982640421936696</v>
+        <v>1.069520730744913</v>
       </c>
       <c r="L17">
-        <v>1.000512751882442</v>
+        <v>1.070986885199202</v>
       </c>
       <c r="M17">
-        <v>1.000875506686631</v>
+        <v>1.079828135370851</v>
       </c>
       <c r="N17">
-        <v>1.003209841295972</v>
+        <v>1.070877182587961</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9762662697715423</v>
+        <v>1.063806206299381</v>
       </c>
       <c r="D18">
-        <v>0.9867719331657296</v>
+        <v>1.066688884888265</v>
       </c>
       <c r="E18">
-        <v>0.9889713913460539</v>
+        <v>1.068144203100292</v>
       </c>
       <c r="F18">
-        <v>0.9895763148987038</v>
+        <v>1.077057852401069</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.039850367621004</v>
+        <v>1.044986627079902</v>
       </c>
       <c r="J18">
-        <v>1.004256897306036</v>
+        <v>1.069730352216909</v>
       </c>
       <c r="K18">
-        <v>1.000822974867791</v>
+        <v>1.069910610630637</v>
       </c>
       <c r="L18">
-        <v>1.002983247713026</v>
+        <v>1.071361241729893</v>
       </c>
       <c r="M18">
-        <v>1.003577433631605</v>
+        <v>1.080246485324614</v>
       </c>
       <c r="N18">
-        <v>1.005683057290087</v>
+        <v>1.071249492016844</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9772805598351132</v>
+        <v>1.06395988518857</v>
       </c>
       <c r="D19">
-        <v>0.9877182175226185</v>
+        <v>1.066836032610869</v>
       </c>
       <c r="E19">
-        <v>0.9898869074868787</v>
+        <v>1.068286014310071</v>
       </c>
       <c r="F19">
-        <v>0.9905713901453171</v>
+        <v>1.077214577618607</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.04020237631051</v>
+        <v>1.04502732273951</v>
       </c>
       <c r="J19">
-        <v>1.005090406714778</v>
+        <v>1.069857013981184</v>
       </c>
       <c r="K19">
-        <v>1.001686670304603</v>
+        <v>1.070043446026596</v>
       </c>
       <c r="L19">
-        <v>1.003817025094573</v>
+        <v>1.071488780416285</v>
       </c>
       <c r="M19">
-        <v>1.004489453566166</v>
+        <v>1.080389028419684</v>
       </c>
       <c r="N19">
-        <v>1.006517750377794</v>
+        <v>1.071376333655352</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9727034595600916</v>
+        <v>1.063272189124061</v>
       </c>
       <c r="D20">
-        <v>0.9834488030856491</v>
+        <v>1.066177575280642</v>
       </c>
       <c r="E20">
-        <v>0.9857561359033791</v>
+        <v>1.067651410063992</v>
       </c>
       <c r="F20">
-        <v>0.9860819394880281</v>
+        <v>1.076513286340909</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.038612443240974</v>
+        <v>1.044845024270044</v>
       </c>
       <c r="J20">
-        <v>1.001328739178067</v>
+        <v>1.069290133821435</v>
       </c>
       <c r="K20">
-        <v>0.9977890656144389</v>
+        <v>1.069448965933872</v>
       </c>
       <c r="L20">
-        <v>1.000054157471517</v>
+        <v>1.070917974062935</v>
       </c>
       <c r="M20">
-        <v>1.000374017212704</v>
+        <v>1.07975113375871</v>
       </c>
       <c r="N20">
-        <v>1.002750740841712</v>
+        <v>1.070808648460754</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9570376702664805</v>
+        <v>1.061029137862804</v>
       </c>
       <c r="D21">
-        <v>0.9688520472755102</v>
+        <v>1.064030114643737</v>
       </c>
       <c r="E21">
-        <v>0.9716302400885564</v>
+        <v>1.065581270034274</v>
       </c>
       <c r="F21">
-        <v>0.9707343779625568</v>
+        <v>1.074226539944294</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.033145127803207</v>
+        <v>1.044247085149086</v>
       </c>
       <c r="J21">
-        <v>0.9884483123512218</v>
+        <v>1.067439692431381</v>
       </c>
       <c r="K21">
-        <v>0.9844485723395393</v>
+        <v>1.067508966807705</v>
       </c>
       <c r="L21">
-        <v>0.9871697848799902</v>
+        <v>1.06905468864124</v>
       </c>
       <c r="M21">
-        <v>0.9862922497453019</v>
+        <v>1.077669991269411</v>
       </c>
       <c r="N21">
-        <v>0.9898520223313667</v>
+        <v>1.068955579231677</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.94649280385537</v>
+        <v>1.059613106931606</v>
       </c>
       <c r="D22">
-        <v>0.9590411363423846</v>
+        <v>1.062674604854337</v>
       </c>
       <c r="E22">
-        <v>0.9621334341559935</v>
+        <v>1.064274201391676</v>
       </c>
       <c r="F22">
-        <v>0.9604195920473305</v>
+        <v>1.072783423434226</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.029446268661108</v>
+        <v>1.043867050168437</v>
       </c>
       <c r="J22">
-        <v>0.9797753557027735</v>
+        <v>1.066270401132953</v>
       </c>
       <c r="K22">
-        <v>0.9754701354845979</v>
+        <v>1.066283495088562</v>
       </c>
       <c r="L22">
-        <v>0.9784943028657422</v>
+        <v>1.06787725773232</v>
       </c>
       <c r="M22">
-        <v>0.9768181485621511</v>
+        <v>1.076355768536133</v>
       </c>
       <c r="N22">
-        <v>0.9811667490896756</v>
+        <v>1.067784627405487</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9521555739381725</v>
+        <v>1.060364325274808</v>
       </c>
       <c r="D23">
-        <v>0.9643082885132366</v>
+        <v>1.063393699297693</v>
       </c>
       <c r="E23">
-        <v>0.9672321675355583</v>
+        <v>1.06496763260715</v>
       </c>
       <c r="F23">
-        <v>0.9659572145534039</v>
+        <v>1.073548963591813</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.031434270528422</v>
+        <v>1.044068904430359</v>
       </c>
       <c r="J23">
-        <v>0.9844330533594705</v>
+        <v>1.066890826980203</v>
       </c>
       <c r="K23">
-        <v>0.9802914819115514</v>
+        <v>1.066933691359601</v>
       </c>
       <c r="L23">
-        <v>0.9831533436234932</v>
+        <v>1.068502004810394</v>
       </c>
       <c r="M23">
-        <v>0.9819053720705142</v>
+        <v>1.077053014850228</v>
       </c>
       <c r="N23">
-        <v>0.9858310612112905</v>
+        <v>1.068405934328604</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9729556878359492</v>
+        <v>1.063309699138633</v>
       </c>
       <c r="D24">
-        <v>0.9836840219922214</v>
+        <v>1.066213489655332</v>
       </c>
       <c r="E24">
-        <v>0.9859837280448963</v>
+        <v>1.067686025188331</v>
       </c>
       <c r="F24">
-        <v>0.9863292748260589</v>
+        <v>1.076551535463972</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.038700154536734</v>
+        <v>1.044854980211833</v>
       </c>
       <c r="J24">
-        <v>1.001536055004976</v>
+        <v>1.069321059473958</v>
       </c>
       <c r="K24">
-        <v>0.998003853852672</v>
+        <v>1.06948139526279</v>
       </c>
       <c r="L24">
-        <v>1.000261538830491</v>
+        <v>1.070949114005374</v>
       </c>
       <c r="M24">
-        <v>1.000600793688737</v>
+        <v>1.079785929371013</v>
       </c>
       <c r="N24">
-        <v>1.002958351080874</v>
+        <v>1.070839618031251</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.9946252519318831</v>
+        <v>1.066703647593408</v>
       </c>
       <c r="D25">
-        <v>1.00391529798926</v>
+        <v>1.069463459578525</v>
       </c>
       <c r="E25">
-        <v>1.00555356402364</v>
+        <v>1.070817564461837</v>
       </c>
       <c r="F25">
-        <v>1.007606005322169</v>
+        <v>1.080013540298184</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.046189999254544</v>
+        <v>1.045749692131765</v>
       </c>
       <c r="J25">
-        <v>1.019334861607636</v>
+        <v>1.072116582837158</v>
       </c>
       <c r="K25">
-        <v>1.016453136538146</v>
+        <v>1.072413821233331</v>
       </c>
       <c r="L25">
-        <v>1.01806627548139</v>
+        <v>1.073763962715049</v>
       </c>
       <c r="M25">
-        <v>1.020087384232641</v>
+        <v>1.082933308077375</v>
       </c>
       <c r="N25">
-        <v>1.020782434030462</v>
+        <v>1.073639111358278</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_126/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_126/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.06939234730424</v>
+        <v>1.01037671640418</v>
       </c>
       <c r="D2">
-        <v>1.072038659540243</v>
+        <v>1.018648773938988</v>
       </c>
       <c r="E2">
-        <v>1.073297678660724</v>
+        <v>1.019797431959325</v>
       </c>
       <c r="F2">
-        <v>1.082757872379919</v>
+        <v>1.023106726777964</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.046449540882804</v>
+        <v>1.051565627414977</v>
       </c>
       <c r="J2">
-        <v>1.074327305605132</v>
+        <v>1.032251430203389</v>
       </c>
       <c r="K2">
-        <v>1.074734235453945</v>
+        <v>1.029854274376534</v>
       </c>
       <c r="L2">
-        <v>1.075989911868544</v>
+        <v>1.030987678599247</v>
       </c>
       <c r="M2">
-        <v>1.08542525720971</v>
+        <v>1.034253267163693</v>
       </c>
       <c r="N2">
-        <v>1.075852973606156</v>
+        <v>1.033717345635171</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.071334476799323</v>
+        <v>1.021091856370076</v>
       </c>
       <c r="D3">
-        <v>1.073899115812292</v>
+        <v>1.028684033450313</v>
       </c>
       <c r="E3">
-        <v>1.075088726705865</v>
+        <v>1.029494624989947</v>
       </c>
       <c r="F3">
-        <v>1.084741177176355</v>
+        <v>1.033668672783414</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.046949866511578</v>
+        <v>1.055180796886618</v>
       </c>
       <c r="J3">
-        <v>1.075921909107392</v>
+        <v>1.041023596198958</v>
       </c>
       <c r="K3">
-        <v>1.076408787342939</v>
+        <v>1.038962594082695</v>
       </c>
       <c r="L3">
-        <v>1.077595473086181</v>
+        <v>1.039763528491421</v>
       </c>
       <c r="M3">
-        <v>1.087224443993265</v>
+        <v>1.043888144949361</v>
       </c>
       <c r="N3">
-        <v>1.077449841628292</v>
+        <v>1.042501969112636</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.072586654219481</v>
+        <v>1.027734664956852</v>
       </c>
       <c r="D4">
-        <v>1.075098774253811</v>
+        <v>1.034910331981164</v>
       </c>
       <c r="E4">
-        <v>1.076243301880598</v>
+        <v>1.035509059304171</v>
       </c>
       <c r="F4">
-        <v>1.086020358652081</v>
+        <v>1.040223840613058</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.047270040749313</v>
+        <v>1.057402170203376</v>
       </c>
       <c r="J4">
-        <v>1.076948969065277</v>
+        <v>1.046454572428558</v>
       </c>
       <c r="K4">
-        <v>1.077487723750012</v>
+        <v>1.044604914927282</v>
       </c>
       <c r="L4">
-        <v>1.078629581626147</v>
+        <v>1.045197008352841</v>
       </c>
       <c r="M4">
-        <v>1.088384077969757</v>
+        <v>1.049859877623862</v>
       </c>
       <c r="N4">
-        <v>1.078478360129123</v>
+        <v>1.047940657951423</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.073112013468997</v>
+        <v>1.030463264661478</v>
       </c>
       <c r="D5">
-        <v>1.075602131529832</v>
+        <v>1.037468931499557</v>
       </c>
       <c r="E5">
-        <v>1.076727664906222</v>
+        <v>1.037980090718293</v>
       </c>
       <c r="F5">
-        <v>1.086557156710355</v>
+        <v>1.042918112212949</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.047403794706232</v>
+        <v>1.058309779256766</v>
       </c>
       <c r="J5">
-        <v>1.077379626532699</v>
+        <v>1.048683571246724</v>
       </c>
       <c r="K5">
-        <v>1.077940225301535</v>
+        <v>1.046921425194259</v>
       </c>
       <c r="L5">
-        <v>1.079063192836862</v>
+        <v>1.047427094369278</v>
       </c>
       <c r="M5">
-        <v>1.088870518439803</v>
+        <v>1.052312418794229</v>
       </c>
       <c r="N5">
-        <v>1.078909629179546</v>
+        <v>1.050172822203581</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.073200162347302</v>
+        <v>1.030917801315957</v>
       </c>
       <c r="D6">
-        <v>1.075686590644468</v>
+        <v>1.037895210044075</v>
       </c>
       <c r="E6">
-        <v>1.076808932378736</v>
+        <v>1.038391750158359</v>
       </c>
       <c r="F6">
-        <v>1.086647231273349</v>
+        <v>1.04336702640264</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.047426203110089</v>
+        <v>1.058460683699417</v>
       </c>
       <c r="J6">
-        <v>1.077451870797037</v>
+        <v>1.049054773439969</v>
       </c>
       <c r="K6">
-        <v>1.078016139367563</v>
+        <v>1.047307246216588</v>
       </c>
       <c r="L6">
-        <v>1.079135932507028</v>
+        <v>1.047798481315286</v>
       </c>
       <c r="M6">
-        <v>1.088952131846363</v>
+        <v>1.052720942878846</v>
       </c>
       <c r="N6">
-        <v>1.078981976039026</v>
+        <v>1.050544551546518</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.072593678213438</v>
+        <v>1.027771369469064</v>
       </c>
       <c r="D7">
-        <v>1.075105503956114</v>
+        <v>1.034944745517738</v>
       </c>
       <c r="E7">
-        <v>1.076249777943125</v>
+        <v>1.035542297041502</v>
       </c>
       <c r="F7">
-        <v>1.086027535152963</v>
+        <v>1.040260076828658</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.04727183129552</v>
+        <v>1.057414398474921</v>
       </c>
       <c r="J7">
-        <v>1.076954727899651</v>
+        <v>1.046484563775761</v>
       </c>
       <c r="K7">
-        <v>1.077493774326843</v>
+        <v>1.044636080692614</v>
       </c>
       <c r="L7">
-        <v>1.078635379965138</v>
+        <v>1.045227014083135</v>
       </c>
       <c r="M7">
-        <v>1.08839058198428</v>
+        <v>1.049892870371976</v>
       </c>
       <c r="N7">
-        <v>1.078484127141703</v>
+        <v>1.04797069188978</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.070049647230855</v>
+        <v>1.0140616866737</v>
       </c>
       <c r="D8">
-        <v>1.072668288413038</v>
+        <v>1.022098799044028</v>
       </c>
       <c r="E8">
-        <v>1.07390388609409</v>
+        <v>1.023131683314473</v>
       </c>
       <c r="F8">
-        <v>1.083429012911838</v>
+        <v>1.026737394076706</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.04661937189569</v>
+        <v>1.052813065178935</v>
       </c>
       <c r="J8">
-        <v>1.074867205924667</v>
+        <v>1.035269706490836</v>
       </c>
       <c r="K8">
-        <v>1.075301125168268</v>
+        <v>1.032987522384251</v>
       </c>
       <c r="L8">
-        <v>1.076533524367942</v>
+        <v>1.03400717862427</v>
       </c>
       <c r="M8">
-        <v>1.086034258376845</v>
+        <v>1.037566971942847</v>
       </c>
       <c r="N8">
-        <v>1.076393640646071</v>
+        <v>1.036739908221148</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.065531128678239</v>
+        <v>0.9873833620980966</v>
       </c>
       <c r="D9">
-        <v>1.068340592487433</v>
+        <v>0.9971490912554183</v>
       </c>
       <c r="E9">
-        <v>1.069735809464019</v>
+        <v>0.999009846092434</v>
       </c>
       <c r="F9">
-        <v>1.078817242197701</v>
+        <v>1.00048931050226</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.045441980757522</v>
+        <v>1.043697736675263</v>
       </c>
       <c r="J9">
-        <v>1.071151408966262</v>
+        <v>1.013389650331998</v>
       </c>
       <c r="K9">
-        <v>1.07140115884313</v>
+        <v>1.010288592432264</v>
       </c>
       <c r="L9">
-        <v>1.072792126366318</v>
+        <v>1.012119008306132</v>
       </c>
       <c r="M9">
-        <v>1.081846192182141</v>
+        <v>1.013574453970227</v>
       </c>
       <c r="N9">
-        <v>1.072672566829778</v>
+        <v>1.014828779872887</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.062493336651469</v>
+        <v>0.9673966041777968</v>
       </c>
       <c r="D10">
-        <v>1.065431876019676</v>
+        <v>0.9785012952780514</v>
       </c>
       <c r="E10">
-        <v>1.066932641567722</v>
+        <v>0.9809687458667223</v>
       </c>
       <c r="F10">
-        <v>1.075719150100937</v>
+        <v>0.9808797279945817</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.044637975996189</v>
+        <v>1.036764555916702</v>
       </c>
       <c r="J10">
-        <v>1.068647856686165</v>
+        <v>0.9969662778744409</v>
       </c>
       <c r="K10">
-        <v>1.068775511838252</v>
+        <v>0.9932698763291087</v>
       </c>
       <c r="L10">
-        <v>1.070271243796346</v>
+        <v>0.995690332718728</v>
       </c>
       <c r="M10">
-        <v>1.079028591400124</v>
+        <v>0.9956030048742911</v>
       </c>
       <c r="N10">
-        <v>1.070165459218282</v>
+        <v>0.9983820843426532</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.06117156612564</v>
+        <v>0.9580685346215803</v>
       </c>
       <c r="D11">
-        <v>1.064166463013171</v>
+        <v>0.9698117911352498</v>
       </c>
       <c r="E11">
-        <v>1.065712730321789</v>
+        <v>0.9725591617033895</v>
       </c>
       <c r="F11">
-        <v>1.074371713685094</v>
+        <v>0.9717434356625397</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.044285202006269</v>
+        <v>1.03350598788832</v>
       </c>
       <c r="J11">
-        <v>1.067557255895234</v>
+        <v>0.9892960891064266</v>
       </c>
       <c r="K11">
-        <v>1.067632196163228</v>
+        <v>0.9853263875513113</v>
       </c>
       <c r="L11">
-        <v>1.069173069446698</v>
+        <v>0.9880178141045409</v>
       </c>
       <c r="M11">
-        <v>1.07780216230681</v>
+        <v>0.9872186549749139</v>
       </c>
       <c r="N11">
-        <v>1.069073309649134</v>
+        <v>0.9907010030268051</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.06067961292399</v>
+        <v>0.9544855632581976</v>
       </c>
       <c r="D12">
-        <v>1.063695515824381</v>
+        <v>0.96647649201369</v>
       </c>
       <c r="E12">
-        <v>1.06525865451957</v>
+        <v>0.9693309000123985</v>
       </c>
       <c r="F12">
-        <v>1.073870293953782</v>
+        <v>0.9682367827486664</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.044153460467514</v>
+        <v>1.032251153387253</v>
       </c>
       <c r="J12">
-        <v>1.067151150050018</v>
+        <v>0.9863493903660977</v>
       </c>
       <c r="K12">
-        <v>1.067206531868189</v>
+        <v>0.9822754207302256</v>
       </c>
       <c r="L12">
-        <v>1.068764139423415</v>
+        <v>0.9850702420987519</v>
       </c>
       <c r="M12">
-        <v>1.077345624669521</v>
+        <v>0.9839989099834134</v>
       </c>
       <c r="N12">
-        <v>1.068666627087037</v>
+        <v>0.987750119636274</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.060785183774548</v>
+        <v>0.9552597857467363</v>
       </c>
       <c r="D13">
-        <v>1.063796577506089</v>
+        <v>0.9671970823694196</v>
       </c>
       <c r="E13">
-        <v>1.065356098584321</v>
+        <v>0.970028382864924</v>
       </c>
       <c r="F13">
-        <v>1.073977892376076</v>
+        <v>0.9689943891424421</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.044181751553841</v>
+        <v>1.032522442822719</v>
       </c>
       <c r="J13">
-        <v>1.067238307153426</v>
+        <v>0.9869861437918637</v>
       </c>
       <c r="K13">
-        <v>1.067297883333151</v>
+        <v>0.9829346724954399</v>
       </c>
       <c r="L13">
-        <v>1.068851902830826</v>
+        <v>0.9857071832137961</v>
       </c>
       <c r="M13">
-        <v>1.077443598661481</v>
+        <v>0.9846946069760361</v>
       </c>
       <c r="N13">
-        <v>1.068753907963529</v>
+        <v>0.988387777324941</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.061130921462196</v>
+        <v>0.9577748875035873</v>
       </c>
       <c r="D14">
-        <v>1.064127553225331</v>
+        <v>0.9695383917656737</v>
       </c>
       <c r="E14">
-        <v>1.06567521573825</v>
+        <v>0.9722945444028517</v>
       </c>
       <c r="F14">
-        <v>1.074330285149197</v>
+        <v>0.971455987855519</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.044274326657213</v>
+        <v>1.033403209350111</v>
       </c>
       <c r="J14">
-        <v>1.067523707769457</v>
+        <v>0.9890545975979473</v>
       </c>
       <c r="K14">
-        <v>1.067597030881411</v>
+        <v>0.9850763361744085</v>
       </c>
       <c r="L14">
-        <v>1.069139288101726</v>
+        <v>0.9877762505784946</v>
       </c>
       <c r="M14">
-        <v>1.077764445062813</v>
+        <v>0.9869547599342267</v>
       </c>
       <c r="N14">
-        <v>1.069039713881171</v>
+        <v>0.9904591685726847</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.061343809956546</v>
+        <v>0.9593082963314993</v>
       </c>
       <c r="D15">
-        <v>1.064331356032319</v>
+        <v>0.970966166941348</v>
       </c>
       <c r="E15">
-        <v>1.06587170812578</v>
+        <v>0.9736764406900897</v>
       </c>
       <c r="F15">
-        <v>1.074547282934236</v>
+        <v>0.9729571333618758</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.044331271458676</v>
+        <v>1.033939785422914</v>
       </c>
       <c r="J15">
-        <v>1.067699418173917</v>
+        <v>0.9903156329740117</v>
       </c>
       <c r="K15">
-        <v>1.067781214143657</v>
+        <v>0.9863820994604043</v>
       </c>
       <c r="L15">
-        <v>1.069316219839472</v>
+        <v>0.9890376629082972</v>
       </c>
       <c r="M15">
-        <v>1.077961997472902</v>
+        <v>0.9883328365911035</v>
       </c>
       <c r="N15">
-        <v>1.069215673814558</v>
+        <v>0.9917219947636257</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.06258092116269</v>
+        <v>0.9680001336449457</v>
       </c>
       <c r="D16">
-        <v>1.065515730290302</v>
+        <v>0.9790638150115415</v>
       </c>
       <c r="E16">
-        <v>1.06701347181489</v>
+        <v>0.9815130889059656</v>
       </c>
       <c r="F16">
-        <v>1.075808447349418</v>
+        <v>0.9814711935257828</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.044661290009926</v>
+        <v>1.036974939070143</v>
       </c>
       <c r="J16">
-        <v>1.06872009625216</v>
+        <v>0.9974624552957232</v>
       </c>
       <c r="K16">
-        <v>1.068851253074073</v>
+        <v>0.9937838312370905</v>
       </c>
       <c r="L16">
-        <v>1.070343984481345</v>
+        <v>0.9961866637608445</v>
       </c>
       <c r="M16">
-        <v>1.079109848519382</v>
+        <v>0.9961455602242315</v>
       </c>
       <c r="N16">
-        <v>1.070237801372747</v>
+        <v>0.9988789663927859</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.063355197954983</v>
+        <v>0.9732612306603956</v>
       </c>
       <c r="D17">
-        <v>1.066257053124135</v>
+        <v>0.9839689685566336</v>
       </c>
       <c r="E17">
-        <v>1.06772801241681</v>
+        <v>0.986259433685445</v>
       </c>
       <c r="F17">
-        <v>1.076597931178384</v>
+        <v>0.9866289002851315</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.044867054609844</v>
+        <v>1.038806391126713</v>
       </c>
       <c r="J17">
-        <v>1.069358570760339</v>
+        <v>1.001787188581588</v>
       </c>
       <c r="K17">
-        <v>1.069520730744913</v>
+        <v>0.9982640421936682</v>
       </c>
       <c r="L17">
-        <v>1.070986885199202</v>
+        <v>1.000512751882441</v>
       </c>
       <c r="M17">
-        <v>1.079828135370851</v>
+        <v>1.00087550668663</v>
       </c>
       <c r="N17">
-        <v>1.070877182587961</v>
+        <v>1.00320984129597</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.063806206299381</v>
+        <v>0.9762662697715405</v>
       </c>
       <c r="D18">
-        <v>1.066688884888265</v>
+        <v>0.9867719331657276</v>
       </c>
       <c r="E18">
-        <v>1.068144203100292</v>
+        <v>0.9889713913460519</v>
       </c>
       <c r="F18">
-        <v>1.077057852401069</v>
+        <v>0.9895763148987019</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.044986627079902</v>
+        <v>1.039850367621003</v>
       </c>
       <c r="J18">
-        <v>1.069730352216909</v>
+        <v>1.004256897306035</v>
       </c>
       <c r="K18">
-        <v>1.069910610630637</v>
+        <v>1.000822974867789</v>
       </c>
       <c r="L18">
-        <v>1.071361241729893</v>
+        <v>1.002983247713024</v>
       </c>
       <c r="M18">
-        <v>1.080246485324614</v>
+        <v>1.003577433631603</v>
       </c>
       <c r="N18">
-        <v>1.071249492016844</v>
+        <v>1.005683057290085</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.06395988518857</v>
+        <v>0.9772805598351159</v>
       </c>
       <c r="D19">
-        <v>1.066836032610869</v>
+        <v>0.9877182175226208</v>
       </c>
       <c r="E19">
-        <v>1.068286014310071</v>
+        <v>0.9898869074868812</v>
       </c>
       <c r="F19">
-        <v>1.077214577618607</v>
+        <v>0.9905713901453201</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.04502732273951</v>
+        <v>1.040202376310511</v>
       </c>
       <c r="J19">
-        <v>1.069857013981184</v>
+        <v>1.00509040671478</v>
       </c>
       <c r="K19">
-        <v>1.070043446026596</v>
+        <v>1.001686670304605</v>
       </c>
       <c r="L19">
-        <v>1.071488780416285</v>
+        <v>1.003817025094575</v>
       </c>
       <c r="M19">
-        <v>1.080389028419684</v>
+        <v>1.004489453566169</v>
       </c>
       <c r="N19">
-        <v>1.071376333655352</v>
+        <v>1.006517750377796</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.063272189124061</v>
+        <v>0.9727034595600939</v>
       </c>
       <c r="D20">
-        <v>1.066177575280642</v>
+        <v>0.9834488030856509</v>
       </c>
       <c r="E20">
-        <v>1.067651410063992</v>
+        <v>0.985756135903381</v>
       </c>
       <c r="F20">
-        <v>1.076513286340909</v>
+        <v>0.9860819394880302</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.044845024270044</v>
+        <v>1.038612443240974</v>
       </c>
       <c r="J20">
-        <v>1.069290133821435</v>
+        <v>1.00132873917807</v>
       </c>
       <c r="K20">
-        <v>1.069448965933872</v>
+        <v>0.9977890656144405</v>
       </c>
       <c r="L20">
-        <v>1.070917974062935</v>
+        <v>1.000054157471519</v>
       </c>
       <c r="M20">
-        <v>1.07975113375871</v>
+        <v>1.000374017212706</v>
       </c>
       <c r="N20">
-        <v>1.070808648460754</v>
+        <v>1.002750740841714</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.061029137862804</v>
+        <v>0.9570376702664787</v>
       </c>
       <c r="D21">
-        <v>1.064030114643737</v>
+        <v>0.9688520472755087</v>
       </c>
       <c r="E21">
-        <v>1.065581270034274</v>
+        <v>0.9716302400885548</v>
       </c>
       <c r="F21">
-        <v>1.074226539944294</v>
+        <v>0.9707343779625547</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.044247085149086</v>
+        <v>1.033145127803206</v>
       </c>
       <c r="J21">
-        <v>1.067439692431381</v>
+        <v>0.98844831235122</v>
       </c>
       <c r="K21">
-        <v>1.067508966807705</v>
+        <v>0.9844485723395378</v>
       </c>
       <c r="L21">
-        <v>1.06905468864124</v>
+        <v>0.9871697848799886</v>
       </c>
       <c r="M21">
-        <v>1.077669991269411</v>
+        <v>0.9862922497453002</v>
       </c>
       <c r="N21">
-        <v>1.068955579231677</v>
+        <v>0.9898520223313646</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.059613106931606</v>
+        <v>0.9464928038553683</v>
       </c>
       <c r="D22">
-        <v>1.062674604854337</v>
+        <v>0.9590411363423825</v>
       </c>
       <c r="E22">
-        <v>1.064274201391676</v>
+        <v>0.9621334341559914</v>
       </c>
       <c r="F22">
-        <v>1.072783423434226</v>
+        <v>0.9604195920473281</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.043867050168437</v>
+        <v>1.029446268661108</v>
       </c>
       <c r="J22">
-        <v>1.066270401132953</v>
+        <v>0.9797753557027719</v>
       </c>
       <c r="K22">
-        <v>1.066283495088562</v>
+        <v>0.9754701354845962</v>
       </c>
       <c r="L22">
-        <v>1.06787725773232</v>
+        <v>0.9784943028657402</v>
       </c>
       <c r="M22">
-        <v>1.076355768536133</v>
+        <v>0.9768181485621489</v>
       </c>
       <c r="N22">
-        <v>1.067784627405487</v>
+        <v>0.9811667490896741</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.060364325274808</v>
+        <v>0.9521555739381712</v>
       </c>
       <c r="D23">
-        <v>1.063393699297693</v>
+        <v>0.964308288513235</v>
       </c>
       <c r="E23">
-        <v>1.06496763260715</v>
+        <v>0.9672321675355571</v>
       </c>
       <c r="F23">
-        <v>1.073548963591813</v>
+        <v>0.9659572145534028</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.044068904430359</v>
+        <v>1.031434270528422</v>
       </c>
       <c r="J23">
-        <v>1.066890826980203</v>
+        <v>0.9844330533594692</v>
       </c>
       <c r="K23">
-        <v>1.066933691359601</v>
+        <v>0.9802914819115499</v>
       </c>
       <c r="L23">
-        <v>1.068502004810394</v>
+        <v>0.9831533436234919</v>
       </c>
       <c r="M23">
-        <v>1.077053014850228</v>
+        <v>0.9819053720705129</v>
       </c>
       <c r="N23">
-        <v>1.068405934328604</v>
+        <v>0.9858310612112891</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.063309699138633</v>
+        <v>0.9729556878359473</v>
       </c>
       <c r="D24">
-        <v>1.066213489655332</v>
+        <v>0.9836840219922196</v>
       </c>
       <c r="E24">
-        <v>1.067686025188331</v>
+        <v>0.9859837280448948</v>
       </c>
       <c r="F24">
-        <v>1.076551535463972</v>
+        <v>0.9863292748260577</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.044854980211833</v>
+        <v>1.038700154536734</v>
       </c>
       <c r="J24">
-        <v>1.069321059473958</v>
+        <v>1.001536055004974</v>
       </c>
       <c r="K24">
-        <v>1.06948139526279</v>
+        <v>0.9980038538526702</v>
       </c>
       <c r="L24">
-        <v>1.070949114005374</v>
+        <v>1.000261538830489</v>
       </c>
       <c r="M24">
-        <v>1.079785929371013</v>
+        <v>1.000600793688735</v>
       </c>
       <c r="N24">
-        <v>1.070839618031251</v>
+        <v>1.002958351080872</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.066703647593408</v>
+        <v>0.9946252519318836</v>
       </c>
       <c r="D25">
-        <v>1.069463459578525</v>
+        <v>1.003915297989261</v>
       </c>
       <c r="E25">
-        <v>1.070817564461837</v>
+        <v>1.005553564023641</v>
       </c>
       <c r="F25">
-        <v>1.080013540298184</v>
+        <v>1.007606005322169</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.045749692131765</v>
+        <v>1.046189999254544</v>
       </c>
       <c r="J25">
-        <v>1.072116582837158</v>
+        <v>1.019334861607637</v>
       </c>
       <c r="K25">
-        <v>1.072413821233331</v>
+        <v>1.016453136538146</v>
       </c>
       <c r="L25">
-        <v>1.073763962715049</v>
+        <v>1.018066275481391</v>
       </c>
       <c r="M25">
-        <v>1.082933308077375</v>
+        <v>1.020087384232641</v>
       </c>
       <c r="N25">
-        <v>1.073639111358278</v>
+        <v>1.020782434030462</v>
       </c>
     </row>
   </sheetData>
